--- a/Assessments/Flipkart Test cases.xlsx
+++ b/Assessments/Flipkart Test cases.xlsx
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
